--- a/biology/Botanique/Großer_Tiergarten/Großer_Tiergarten.xlsx
+++ b/biology/Botanique/Großer_Tiergarten/Großer_Tiergarten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gro%C3%9Fer_Tiergarten</t>
+          <t>Großer_Tiergarten</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le großer Tiergarten [ˈɡʀoːsɐ ˈtiːɐ̯ˌɡaʁtn̩] (littéralement « grand jardin aux animaux ») est un parc du centre de Berlin (à l'ouest de la porte de Brandebourg), situé dans le quartier auquel il a donné son nom Berlin-Tiergarten dans l’arrondissement de Mitte. 
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gro%C3%9Fer_Tiergarten</t>
+          <t>Großer_Tiergarten</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,51 +532,160 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tiergarten était à l'origine une réserve de chasse des margraves, et princes-électeurs du Brandebourg. Au XVIIe siècle, celle-ci s'étirait bien au-delà de ses dimensions actuelles : elle s'étendait jusqu'aux villages de Lietzow à l'ouest, de Wilmersdorf au nord, et de Schöneberg au sud.
-Du XVIIIe siècle à 1918
-Sous Frédéric Ier, le Tiergarten commença à devenir un parc. Dans le prolongement de l'avenue Unter den Linden, on aménagea une allée reliant le château de Berlin (Stadtschloss) à la résidence d'été de Charlottenburg. Celle-ci baptisée Charlottenburger Chaussee allait devenir plus tard la Straße des 17. Juni.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Großer_Tiergarten</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gro%C3%9Fer_Tiergarten</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Du XVIIIe siècle à 1918</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous Frédéric Ier, le Tiergarten commença à devenir un parc. Dans le prolongement de l'avenue Unter den Linden, on aménagea une allée reliant le château de Berlin (Stadtschloss) à la résidence d'été de Charlottenburg. Celle-ci baptisée Charlottenburger Chaussee allait devenir plus tard la Straße des 17. Juni.
 Sous le règne de Frédéric II, le Tiergarten prit peu à peu sa physionomie actuelle. Knobelsdorff en transforma une partie en parc d'agrément, inspiré du style français.
 Ses successeurs lui préférèrent les jardins à l'anglaise : l'« île Rousseau » et l'« île de la Reine Marie-Louise » furent créées entre 1792 et 1810.
 C'est le paysagiste Peter Joseph Lenné (1789-1866) qui dessina les espaces sillonnés de sentiers bucoliques et parsemés de lacs que l'on connait aujourd'hui. À la même époque, Lenné fut chargé de réaliser le jardin zoologique.
 En 1848-1849, lors de la révolution de mars, les manifestants ouvriers et bourgeois se réunirent au Tiergarten face à la troupe qui se retira. Mais les divisions au sein du mouvement le font échouer peu après, et les militaires décrétèrent l'état de siège dans la ville. Ce mouvement est à l'origine du processus d'unification de l'Allemagne.
 Le Tiergarten continue d'être aménagé en lieu de promenade pendant le XIXe siècle et le début du XXe siècle, avec notamment des sculptures comme le monument des Compositeurs, l'allée de la Victoire voulue par Guillaume II, ornée de statues historiques.
-Après 1918
-Durant la Seconde Guerre mondiale, notamment pendant la bataille de Berlin, le parc est gravement endommagé par les bombes incendiaires, avant que les arbres restants ne soient tous abattus pour servir de bois de chauffage et que les espaces verts ne se transforment en potagers pour subvenir aux besoins de la population berlinoise. À l'issue du conflit, en 1949, un million d'arbres furent plantés, dont un tilleul des mains du bourgmestre Ernst Reuter, redonnant ainsi au Tiergarten son lustre d'antan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Großer_Tiergarten</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gro%C3%9Fer_Tiergarten</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Après 1918</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la Seconde Guerre mondiale, notamment pendant la bataille de Berlin, le parc est gravement endommagé par les bombes incendiaires, avant que les arbres restants ne soient tous abattus pour servir de bois de chauffage et que les espaces verts ne se transforment en potagers pour subvenir aux besoins de la population berlinoise. À l'issue du conflit, en 1949, un million d'arbres furent plantés, dont un tilleul des mains du bourgmestre Ernst Reuter, redonnant ainsi au Tiergarten son lustre d'antan.
 Durant l'occupation alliée de Berlin, le parc se trouve dans la zone britannique.
-Après la réunification allemande
-Le Tiergarten a été le point de ralliement des Love Parade depuis la chute du Mur au début des années 1990, avec 1,5 million de fêtards de la musique électronique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Großer_Tiergarten</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gro%C3%9Fer_Tiergarten</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Après la réunification allemande</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tiergarten a été le point de ralliement des Love Parade depuis la chute du Mur au début des années 1990, avec 1,5 million de fêtards de la musique électronique.
 En 2008, y a été inauguré le mémorial aux homosexuels persécutés pendant la période nazie.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gro%C3%9Fer_Tiergarten</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Großer_Tiergarten</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gro%C3%9Fer_Tiergarten</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vue panoramique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
